--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T11:12:53+00:00</t>
+    <t>2022-11-22T14:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T14:31:57+00:00</t>
+    <t>2022-11-23T06:27:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T06:27:07+00:00</t>
+    <t>2022-11-25T10:22:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:22:52+00:00</t>
+    <t>2022-11-25T13:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-recovered-or-symptoms-resolved</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-recovered-or-symptoms-resolved</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T13:25:06+00:00</t>
+    <t>2022-11-25T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-recovered-or-symptoms-resolved</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-recovered-or-symptoms-resolved</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T14:14:34+00:00</t>
+    <t>2022-11-28T06:50:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T06:50:59+00:00</t>
+    <t>2022-11-28T08:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T08:23:30+00:00</t>
+    <t>2022-11-28T09:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T09:07:59+00:00</t>
+    <t>2022-11-28T09:59:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T09:59:43+00:00</t>
+    <t>2022-11-28T13:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:41:14+00:00</t>
+    <t>2022-11-28T14:56:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$52</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:56:48+00:00</t>
+    <t>2022-11-29T10:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -645,6 +642,14 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="370996005"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -675,7 +680,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -764,8 +769,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -784,7 +789,7 @@
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>closed</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -800,10 +805,6 @@
   </si>
   <si>
     <t>effectiveDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -988,6 +989,107 @@
     <t>subjectOf.observationEvent[code="annotation"].value</t>
   </si>
   <si>
+    <t>Observation.note.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.note.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>authorReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Observation.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Observation.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
+  </si>
+  <si>
     <t>Observation.bodySite</t>
   </si>
   <si>
@@ -1134,29 +1236,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1546,21 +1626,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1737,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1773,7 +1838,7 @@
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1914,7 +1979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -2031,7 +2096,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2148,7 +2213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2263,7 +2328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2380,7 +2445,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2497,7 +2562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -2614,7 +2679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -2731,7 +2796,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -2848,7 +2913,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -2967,7 +3032,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -3084,7 +3149,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3201,7 +3266,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>164</v>
       </c>
@@ -3318,7 +3383,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>173</v>
       </c>
@@ -3437,7 +3502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>186</v>
       </c>
@@ -3556,7 +3621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>196</v>
       </c>
@@ -3603,7 +3668,7 @@
         <v>80</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>80</v>
@@ -3618,13 +3683,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3657,27 +3722,27 @@
         <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3685,7 +3750,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>89</v>
@@ -3700,19 +3765,19 @@
         <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3761,7 +3826,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3776,27 +3841,27 @@
         <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3819,16 +3884,16 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3878,7 +3943,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3899,29 +3964,29 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>89</v>
@@ -3936,19 +4001,19 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -3997,7 +4062,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4012,35 +4077,35 @@
         <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>89</v>
@@ -4055,19 +4120,19 @@
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4104,17 +4169,17 @@
         <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4129,19 +4194,19 @@
         <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4149,23 +4214,23 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4174,19 +4239,19 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4235,7 +4300,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4250,25 +4315,25 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>253</v>
       </c>
@@ -4385,7 +4450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>261</v>
       </c>
@@ -4502,7 +4567,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>270</v>
       </c>
@@ -4621,7 +4686,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>281</v>
       </c>
@@ -4740,7 +4805,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>291</v>
       </c>
@@ -4859,7 +4924,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>303</v>
       </c>
@@ -4869,10 +4934,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
@@ -4978,7 +5043,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>311</v>
       </c>
@@ -5003,17 +5068,15 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M28" t="s" s="2">
         <v>314</v>
       </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5038,31 +5101,31 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5074,41 +5137,41 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5120,20 +5183,18 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5157,43 +5218,43 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
@@ -5202,10 +5263,10 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5214,9 +5275,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5236,19 +5297,19 @@
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5286,19 +5347,17 @@
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5316,26 +5375,28 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5353,19 +5414,19 @@
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5415,7 +5476,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5433,24 +5494,24 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5461,7 +5522,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5470,23 +5531,19 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5534,19 +5591,19 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>354</v>
+        <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>80</v>
@@ -5555,10 +5612,10 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5567,9 +5624,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5577,7 +5634,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>89</v>
@@ -5589,16 +5646,16 @@
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5649,10 +5706,10 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>89</v>
@@ -5661,7 +5718,7 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>80</v>
@@ -5670,10 +5727,10 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5682,20 +5739,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -5707,16 +5764,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>344</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>138</v>
+        <v>346</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5742,13 +5799,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5766,77 +5823,77 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>144</v>
+        <v>357</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5861,13 +5918,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5885,19 +5942,19 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>80</v>
@@ -5906,10 +5963,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>132</v>
+        <v>361</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5918,9 +5975,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5943,15 +6000,17 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6000,7 +6059,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6009,7 +6068,7 @@
         <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
@@ -6018,24 +6077,24 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6061,12 +6120,14 @@
         <v>372</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6115,7 +6176,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6124,7 +6185,7 @@
         <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>101</v>
@@ -6133,24 +6194,24 @@
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6161,7 +6222,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6173,19 +6234,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>187</v>
+        <v>381</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6210,66 +6271,66 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6280,7 +6341,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6292,20 +6353,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>392</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6329,13 +6386,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6353,53 +6410,53 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6411,18 +6468,18 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>399</v>
+        <v>135</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>400</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6470,19 +6527,19 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>80</v>
@@ -6494,7 +6551,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6503,41 +6560,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6585,19 +6646,19 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>80</v>
@@ -6606,10 +6667,10 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6618,9 +6679,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6631,7 +6692,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6640,20 +6701,18 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -6702,16 +6761,16 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>101</v>
@@ -6723,10 +6782,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6735,9 +6794,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6748,7 +6807,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
@@ -6757,20 +6816,18 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -6819,16 +6876,16 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>101</v>
@@ -6840,10 +6897,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6852,9 +6909,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6865,7 +6922,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -6874,22 +6931,22 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>349</v>
+        <v>187</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6914,13 +6971,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -6938,13 +6995,13 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
@@ -6956,13 +7013,13 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>427</v>
+        <v>301</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -6971,9 +7028,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6984,7 +7041,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -6996,16 +7053,20 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>358</v>
+        <v>187</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7029,13 +7090,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7053,31 +7114,31 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7086,20 +7147,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -7111,18 +7172,18 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>135</v>
+        <v>424</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>136</v>
+        <v>425</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7170,19 +7231,19 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7194,7 +7255,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7203,45 +7264,41 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>135</v>
+        <v>312</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7289,19 +7346,19 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>429</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
@@ -7310,10 +7367,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>132</v>
+        <v>432</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7322,9 +7379,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7332,10 +7389,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7347,20 +7404,18 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>187</v>
+        <v>434</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7384,13 +7439,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7408,13 +7463,13 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
@@ -7426,24 +7481,24 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>207</v>
+        <v>438</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>208</v>
+        <v>439</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7454,7 +7509,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -7466,20 +7521,18 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>271</v>
+        <v>441</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>273</v>
+        <v>443</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7527,13 +7580,13 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
@@ -7545,24 +7598,24 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>278</v>
+        <v>438</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>279</v>
+        <v>445</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7573,7 +7626,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -7582,22 +7635,22 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>187</v>
+        <v>381</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>285</v>
+        <v>450</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7622,13 +7675,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7646,16 +7699,16 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>101</v>
@@ -7667,10 +7720,10 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>132</v>
+        <v>451</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>290</v>
+        <v>452</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7679,20 +7732,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7704,20 +7757,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7741,13 +7790,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7765,46 +7814,46 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>444</v>
+        <v>315</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7823,20 +7872,18 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>446</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>447</v>
+        <v>318</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7884,7 +7931,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>445</v>
+        <v>322</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7896,46 +7943,742 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO52" t="s" s="2">
+      <c r="AJ54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO52">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:50:32+00:00</t>
+    <t>2022-11-29T13:22:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:22:36+00:00</t>
+    <t>2022-11-29T13:43:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -3430,7 +3433,7 @@
         <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>80</v>
@@ -3445,13 +3448,13 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>80</v>
@@ -3484,19 +3487,19 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -3504,7 +3507,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3527,19 +3530,19 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>80</v>
@@ -3567,10 +3570,10 @@
         <v>113</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>80</v>
@@ -3588,7 +3591,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3612,10 +3615,10 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3623,11 +3626,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3646,19 +3649,19 @@
         <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3668,7 +3671,7 @@
         <v>80</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>80</v>
@@ -3683,13 +3686,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3707,7 +3710,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>89</v>
@@ -3722,27 +3725,27 @@
         <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3765,19 +3768,19 @@
         <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3826,7 +3829,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3841,19 +3844,19 @@
         <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3861,7 +3864,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3884,16 +3887,16 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3943,7 +3946,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3964,13 +3967,13 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -3978,11 +3981,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4001,19 +4004,19 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4062,7 +4065,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4077,19 +4080,19 @@
         <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4097,11 +4100,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4120,19 +4123,19 @@
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4169,17 +4172,17 @@
         <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4194,19 +4197,19 @@
         <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4214,13 +4217,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4239,19 +4242,19 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4300,7 +4303,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4315,19 +4318,19 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4335,7 +4338,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4358,16 +4361,16 @@
         <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4417,7 +4420,7 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4438,13 +4441,13 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4452,7 +4455,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4475,17 +4478,17 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4534,7 +4537,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4549,19 +4552,19 @@
         <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4569,7 +4572,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4592,19 +4595,19 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4653,7 +4656,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4662,7 +4665,7 @@
         <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>101</v>
@@ -4671,24 +4674,24 @@
         <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4711,19 +4714,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4748,13 +4751,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4772,7 +4775,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4781,7 +4784,7 @@
         <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>101</v>
@@ -4796,7 +4799,7 @@
         <v>132</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4807,11 +4810,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4830,19 +4833,19 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4867,13 +4870,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4891,7 +4894,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4909,24 +4912,24 @@
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4949,19 +4952,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5010,7 +5013,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5031,10 +5034,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5045,7 +5048,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5068,13 +5071,13 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5125,7 +5128,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5149,7 +5152,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5189,7 +5192,7 @@
         <v>136</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>138</v>
@@ -5230,19 +5233,19 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5266,7 +5269,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5277,7 +5280,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5300,16 +5303,16 @@
         <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5347,17 +5350,17 @@
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5381,7 +5384,7 @@
         <v>132</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5392,10 +5395,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
@@ -5417,16 +5420,16 @@
         <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5476,7 +5479,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5500,7 +5503,7 @@
         <v>132</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5511,7 +5514,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5534,13 +5537,13 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5591,7 +5594,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5615,7 +5618,7 @@
         <v>132</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5626,7 +5629,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5649,13 +5652,13 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5706,7 +5709,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -5730,7 +5733,7 @@
         <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5741,7 +5744,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5764,16 +5767,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5799,13 +5802,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5823,7 +5826,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5841,24 +5844,24 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5881,19 +5884,19 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5918,13 +5921,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5942,7 +5945,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5963,10 +5966,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5977,7 +5980,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6000,16 +6003,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6059,7 +6062,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6077,24 +6080,24 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6117,16 +6120,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6176,7 +6179,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6194,24 +6197,24 @@
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6234,19 +6237,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6295,7 +6298,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6307,7 +6310,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6316,10 +6319,10 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6330,7 +6333,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6353,13 +6356,13 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6410,7 +6413,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6434,7 +6437,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6445,7 +6448,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6474,7 +6477,7 @@
         <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>138</v>
@@ -6527,7 +6530,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6551,7 +6554,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6562,11 +6565,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6588,10 +6591,10 @@
         <v>135</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>138</v>
@@ -6646,7 +6649,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6681,7 +6684,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6704,13 +6707,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6761,7 +6764,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6770,7 +6773,7 @@
         <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>101</v>
@@ -6782,10 +6785,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6796,7 +6799,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6819,13 +6822,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6876,7 +6879,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6885,7 +6888,7 @@
         <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>101</v>
@@ -6897,10 +6900,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6911,7 +6914,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6934,19 +6937,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6974,10 +6977,10 @@
         <v>113</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -6995,7 +6998,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7013,13 +7016,13 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7030,7 +7033,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7053,19 +7056,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7090,13 +7093,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7114,7 +7117,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7132,13 +7135,13 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7149,7 +7152,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7172,17 +7175,17 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7231,7 +7234,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7255,7 +7258,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7266,7 +7269,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7289,13 +7292,13 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7346,7 +7349,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7367,10 +7370,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7381,7 +7384,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7404,16 +7407,16 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7463,7 +7466,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7484,10 +7487,10 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7498,7 +7501,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7521,16 +7524,16 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7580,7 +7583,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7601,10 +7604,10 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7615,7 +7618,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7638,19 +7641,19 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7699,7 +7702,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7720,10 +7723,10 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7734,7 +7737,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7757,13 +7760,13 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7814,7 +7817,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7838,7 +7841,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7849,7 +7852,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7878,7 +7881,7 @@
         <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>138</v>
@@ -7931,7 +7934,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7955,7 +7958,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -7966,11 +7969,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7992,10 +7995,10 @@
         <v>135</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>138</v>
@@ -8050,7 +8053,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8085,7 +8088,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8108,19 +8111,19 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8145,13 +8148,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8169,7 +8172,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>89</v>
@@ -8187,16 +8190,16 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8204,7 +8207,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8227,19 +8230,19 @@
         <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8288,7 +8291,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8306,24 +8309,24 @@
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8346,19 +8349,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8383,13 +8386,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8407,7 +8410,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8416,7 +8419,7 @@
         <v>89</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>101</v>
@@ -8431,7 +8434,7 @@
         <v>132</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8442,11 +8445,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8465,19 +8468,19 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8502,13 +8505,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8526,7 +8529,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8544,24 +8547,24 @@
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8587,16 +8590,16 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8645,7 +8648,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8666,10 +8669,10 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:43:38+00:00</t>
+    <t>2022-11-29T15:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:00:23+00:00</t>
+    <t>2022-11-29T15:28:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:28:54+00:00</t>
+    <t>2022-11-29T15:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:52:33+00:00</t>
+    <t>2022-11-29T16:19:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:19:00+00:00</t>
+    <t>2022-11-29T16:44:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:44:21+00:00</t>
+    <t>2022-11-29T17:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:25:06+00:00</t>
+    <t>2022-11-30T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:35:21+00:00</t>
+    <t>2022-11-30T07:52:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:52:50+00:00</t>
+    <t>2022-11-30T09:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:12:59+00:00</t>
+    <t>2022-11-30T11:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:35:18+00:00</t>
+    <t>2022-11-30T11:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:59:57+00:00</t>
+    <t>2022-11-30T13:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:03:35+00:00</t>
+    <t>2022-11-30T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:32:33+00:00</t>
+    <t>2022-12-01T07:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:10:15+00:00</t>
+    <t>2022-12-01T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:50:10+00:00</t>
+    <t>2022-12-01T08:28:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:28:25+00:00</t>
+    <t>2022-12-01T12:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T12:14:26+00:00</t>
+    <t>2022-12-01T15:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:41:11+00:00</t>
+    <t>2022-12-01T18:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T18:12:17+00:00</t>
+    <t>2022-12-01T19:34:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:34:39+00:00</t>
+    <t>2022-12-02T06:33:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:33:16+00:00</t>
+    <t>2022-12-02T09:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:37:58+00:00</t>
+    <t>2022-12-02T12:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -838,7 +838,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1053,10 +1053,6 @@
   </si>
   <si>
     <t>authorReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Observation.note.time</t>
@@ -4937,7 +4933,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>89</v>
@@ -5420,7 +5416,7 @@
         <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>326</v>
@@ -5514,7 +5510,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5540,10 +5536,10 @@
         <v>242</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5594,7 +5590,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5618,7 +5614,7 @@
         <v>132</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5629,7 +5625,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5652,13 +5648,13 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5709,7 +5705,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -5733,7 +5729,7 @@
         <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5744,7 +5740,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5770,13 +5766,13 @@
         <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5805,11 +5801,11 @@
         <v>204</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5826,7 +5822,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5844,24 +5840,24 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5887,16 +5883,16 @@
         <v>188</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5924,11 +5920,11 @@
         <v>204</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5945,7 +5941,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5966,10 +5962,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5980,7 +5976,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6003,16 +5999,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6062,7 +6058,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6080,24 +6076,24 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6120,16 +6116,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6179,7 +6175,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6197,24 +6193,24 @@
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6237,19 +6233,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6298,7 +6294,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6310,19 +6306,19 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6333,7 +6329,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6448,7 +6444,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6565,11 +6561,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6591,10 +6587,10 @@
         <v>135</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>138</v>
@@ -6649,7 +6645,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6684,7 +6680,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6707,13 +6703,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6764,7 +6760,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6773,7 +6769,7 @@
         <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>101</v>
@@ -6785,10 +6781,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6799,7 +6795,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6822,13 +6818,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6879,7 +6875,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6888,7 +6884,7 @@
         <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>101</v>
@@ -6900,10 +6896,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6914,7 +6910,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6940,16 +6936,16 @@
         <v>188</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6977,11 +6973,11 @@
         <v>113</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6998,7 +6994,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7016,10 +7012,10 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>302</v>
@@ -7033,7 +7029,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7059,16 +7055,16 @@
         <v>188</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7096,11 +7092,11 @@
         <v>204</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7117,7 +7113,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7135,10 +7131,10 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>302</v>
@@ -7152,7 +7148,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7175,17 +7171,17 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7234,7 +7230,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7258,7 +7254,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7269,7 +7265,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7295,10 +7291,10 @@
         <v>313</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7349,7 +7345,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7370,10 +7366,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7384,7 +7380,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7407,16 +7403,16 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7466,7 +7462,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7487,10 +7483,10 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7501,7 +7497,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7524,16 +7520,16 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7583,7 +7579,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7604,10 +7600,10 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7618,7 +7614,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7641,19 +7637,19 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7702,7 +7698,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7723,10 +7719,10 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7737,7 +7733,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7852,7 +7848,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7969,11 +7965,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7995,10 +7991,10 @@
         <v>135</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>138</v>
@@ -8053,7 +8049,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8088,7 +8084,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8114,13 +8110,13 @@
         <v>188</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>202</v>
@@ -8172,7 +8168,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>89</v>
@@ -8190,7 +8186,7 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>209</v>
@@ -8207,7 +8203,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8233,13 +8229,13 @@
         <v>272</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>274</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>276</v>
@@ -8291,7 +8287,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8309,7 +8305,7 @@
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>279</v>
@@ -8326,7 +8322,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8352,13 +8348,13 @@
         <v>188</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>286</v>
@@ -8410,7 +8406,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8445,7 +8441,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8529,7 +8525,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8564,7 +8560,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8590,16 +8586,16 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="M58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8648,7 +8644,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8669,10 +8665,10 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:32:21+00:00</t>
+    <t>2023-01-11T14:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:31:51+00:00</t>
+    <t>2023-01-11T15:47:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:47:52+00:00</t>
+    <t>2023-01-11T16:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T16:39:12+00:00</t>
+    <t>2023-01-12T06:02:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T06:02:57+00:00</t>
+    <t>2023-01-12T13:20:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T13:20:19+00:00</t>
+    <t>2023-01-12T14:08:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T14:08:07+00:00</t>
+    <t>2023-01-12T14:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T14:55:30+00:00</t>
+    <t>2023-01-12T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T16:14:01+00:00</t>
+    <t>2023-01-12T16:41:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T16:41:50+00:00</t>
+    <t>2023-01-12T17:05:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T17:05:04+00:00</t>
+    <t>2023-01-12T17:34:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T17:34:31+00:00</t>
+    <t>2023-01-12T19:06:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T19:06:40+00:00</t>
+    <t>2023-01-12T19:39:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T19:39:17+00:00</t>
+    <t>2023-01-13T06:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T06:54:07+00:00</t>
+    <t>2023-01-13T07:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T07:29:30+00:00</t>
+    <t>2023-01-13T08:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T08:57:34+00:00</t>
+    <t>2023-01-13T09:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T09:58:50+00:00</t>
+    <t>2023-01-13T10:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T10:29:27+00:00</t>
+    <t>2023-01-16T11:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T11:51:15+00:00</t>
+    <t>2023-01-16T12:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T12:33:27+00:00</t>
+    <t>2023-01-16T14:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T14:19:38+00:00</t>
+    <t>2023-01-16T14:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T14:48:34+00:00</t>
+    <t>2023-01-16T15:26:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:26:09+00:00</t>
+    <t>2023-01-16T15:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:57:09+00:00</t>
+    <t>2023-01-16T16:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T16:56:22+00:00</t>
+    <t>2023-01-16T17:14:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T17:14:17+00:00</t>
+    <t>2023-01-16T17:43:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T17:43:27+00:00</t>
+    <t>2023-01-16T18:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T18:10:54+00:00</t>
+    <t>2023-01-17T06:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T06:23:50+00:00</t>
+    <t>2023-01-17T07:03:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T07:03:05+00:00</t>
+    <t>2023-01-17T07:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T07:32:01+00:00</t>
+    <t>2023-01-17T08:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T08:15:18+00:00</t>
+    <t>2023-01-17T08:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T11:11:06+00:00</t>
+    <t>2023-01-17T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T11:46:45+00:00</t>
+    <t>2023-01-17T13:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T13:03:59+00:00</t>
+    <t>2023-01-17T14:44:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T14:44:37+00:00</t>
+    <t>2023-01-17T15:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T15:24:16+00:00</t>
+    <t>2023-01-17T16:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T16:11:06+00:00</t>
+    <t>2023-01-18T09:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T09:08:24+00:00</t>
+    <t>2023-01-18T12:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T12:04:25+00:00</t>
+    <t>2023-01-18T12:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T12:48:48+00:00</t>
+    <t>2023-01-18T14:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:34:48+00:00</t>
+    <t>2023-01-19T12:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T12:12:19+00:00</t>
+    <t>2023-01-20T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T14:21:04+00:00</t>
+    <t>2023-01-21T13:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T13:28:04+00:00</t>
+    <t>2023-01-23T10:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T10:58:26+00:00</t>
+    <t>2023-01-23T16:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:01:34+00:00</t>
+    <t>2023-01-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T12:59:21+00:00</t>
+    <t>2023-01-25T07:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T07:53:15+00:00</t>
+    <t>2023-01-25T13:17:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:17:11+00:00</t>
+    <t>2023-01-25T15:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T15:28:11+00:00</t>
+    <t>2023-01-26T13:59:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T13:59:31+00:00</t>
+    <t>2023-01-27T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T13:52:39+00:00</t>
+    <t>2023-01-28T12:05:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-28T12:05:49+00:00</t>
+    <t>2023-01-31T09:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T09:39:29+00:00</t>
+    <t>2023-01-31T16:23:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T16:23:08+00:00</t>
+    <t>2023-02-01T07:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T07:41:44+00:00</t>
+    <t>2023-02-01T15:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:14:51+00:00</t>
+    <t>2023-02-03T06:45:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T06:45:37+00:00</t>
+    <t>2023-02-03T16:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T16:07:07+00:00</t>
+    <t>2023-02-06T16:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T16:11:51+00:00</t>
+    <t>2023-02-06T16:23:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T16:23:37+00:00</t>
+    <t>2023-02-07T09:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T09:59:06+00:00</t>
+    <t>2023-02-07T10:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T10:23:57+00:00</t>
+    <t>2023-02-07T15:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T15:49:26+00:00</t>
+    <t>2023-02-09T06:56:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T06:56:17+00:00</t>
+    <t>2023-02-17T06:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:44:04+00:00</t>
+    <t>2023-02-17T13:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T13:07:02+00:00</t>
+    <t>2023-02-20T07:31:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:31:23+00:00</t>
+    <t>2023-02-24T05:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T05:16:13+00:00</t>
+    <t>2023-02-24T12:41:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T12:41:05+00:00</t>
+    <t>2023-02-27T13:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:21:54+00:00</t>
+    <t>2023-02-28T10:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:02:19+00:00</t>
+    <t>2023-03-02T06:03:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:03:12+00:00</t>
+    <t>2023-03-03T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:24:05+00:00</t>
+    <t>2023-03-09T10:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -663,13 +663,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-outcome-code</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1116,6 +1110,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1472,6 +1469,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1851,7 +1854,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.66796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3746,13 +3749,11 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3785,30 +3786,30 @@
         <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3831,19 +3832,19 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3892,7 +3893,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3907,19 +3908,19 @@
         <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3927,10 +3928,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3953,16 +3954,16 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4012,7 +4013,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4033,13 +4034,13 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>82</v>
@@ -4047,14 +4048,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4073,19 +4074,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4134,7 +4135,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4149,19 +4150,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4169,14 +4170,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4195,19 +4196,19 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4244,17 +4245,17 @@
         <v>82</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4269,19 +4270,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4289,16 +4290,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4317,19 +4318,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4378,7 +4379,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4393,19 +4394,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4413,10 +4414,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4439,16 +4440,16 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4498,7 +4499,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4519,13 +4520,13 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4533,10 +4534,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4559,17 +4560,17 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4618,7 +4619,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4633,19 +4634,19 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4653,10 +4654,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4679,19 +4680,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4740,7 +4741,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4749,7 +4750,7 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>104</v>
@@ -4758,27 +4759,27 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4804,16 +4805,16 @@
         <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4838,14 +4839,14 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4871,7 +4872,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -4886,7 +4887,7 @@
         <v>135</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -4897,14 +4898,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4926,16 +4927,16 @@
         <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4960,13 +4961,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4984,7 +4985,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5002,27 +5003,27 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5045,19 +5046,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5106,7 +5107,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5127,10 +5128,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5141,10 +5142,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5167,13 +5168,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5224,7 +5225,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5248,7 +5249,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5259,10 +5260,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5291,7 +5292,7 @@
         <v>139</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>141</v>
@@ -5332,19 +5333,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AC29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5368,7 +5369,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5379,10 +5380,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5405,16 +5406,16 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5452,17 +5453,17 @@
         <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5486,7 +5487,7 @@
         <v>135</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5497,13 +5498,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>82</v>
@@ -5525,16 +5526,16 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5584,7 +5585,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5608,7 +5609,7 @@
         <v>135</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5619,10 +5620,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5645,13 +5646,13 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5702,7 +5703,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5726,7 +5727,7 @@
         <v>135</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5737,10 +5738,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5763,13 +5764,13 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5820,7 +5821,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>92</v>
@@ -5844,7 +5845,7 @@
         <v>135</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5855,10 +5856,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5884,13 +5885,13 @@
         <v>191</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5916,14 +5917,14 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>207</v>
+        <v>350</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5958,27 +5959,27 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6004,16 +6005,16 @@
         <v>191</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6038,14 +6039,14 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>207</v>
+        <v>350</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6083,10 +6084,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6097,10 +6098,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6123,16 +6124,16 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6182,7 +6183,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6200,27 +6201,27 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6243,16 +6244,16 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6302,7 +6303,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6320,27 +6321,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6363,19 +6364,19 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6424,7 +6425,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6436,19 +6437,19 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6459,10 +6460,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6485,13 +6486,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6542,7 +6543,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6566,7 +6567,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6577,10 +6578,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6609,7 +6610,7 @@
         <v>139</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>141</v>
@@ -6662,7 +6663,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6686,7 +6687,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6697,14 +6698,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6726,10 +6727,10 @@
         <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>141</v>
@@ -6784,7 +6785,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6819,10 +6820,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6845,13 +6846,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6902,7 +6903,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6911,7 +6912,7 @@
         <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>104</v>
@@ -6923,10 +6924,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6937,10 +6938,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6963,13 +6964,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7020,7 +7021,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7029,7 +7030,7 @@
         <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>104</v>
@@ -7041,10 +7042,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7055,10 +7056,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7084,16 +7085,16 @@
         <v>191</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7121,11 +7122,11 @@
         <v>116</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7160,13 +7161,13 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="AN44" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7177,10 +7178,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7206,16 +7207,16 @@
         <v>191</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7240,14 +7241,14 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>207</v>
+        <v>350</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7282,13 +7283,13 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AM45" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="AN45" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7299,10 +7300,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7325,17 +7326,17 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7384,7 +7385,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7408,7 +7409,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7419,10 +7420,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7445,13 +7446,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7502,7 +7503,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7523,10 +7524,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7537,10 +7538,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7563,16 +7564,16 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7622,7 +7623,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7643,10 +7644,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7657,10 +7658,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7683,16 +7684,16 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7742,7 +7743,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7763,10 +7764,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7777,10 +7778,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7803,19 +7804,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7864,7 +7865,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7885,10 +7886,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -7899,10 +7900,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7925,13 +7926,13 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7982,7 +7983,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8006,7 +8007,7 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8017,10 +8018,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8049,7 +8050,7 @@
         <v>139</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>141</v>
@@ -8102,7 +8103,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8126,7 +8127,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8137,14 +8138,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8166,10 +8167,10 @@
         <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>141</v>
@@ -8224,7 +8225,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8259,10 +8260,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8288,13 +8289,13 @@
         <v>191</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>205</v>
@@ -8322,13 +8323,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>207</v>
+        <v>350</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>208</v>
+        <v>464</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>209</v>
+        <v>465</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8346,7 +8347,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>92</v>
@@ -8364,16 +8365,16 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8381,10 +8382,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8407,19 +8408,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8468,7 +8469,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8486,27 +8487,27 @@
         <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP55" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8532,16 +8533,16 @@
         <v>191</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8566,14 +8567,14 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8599,7 +8600,7 @@
         <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>104</v>
@@ -8614,7 +8615,7 @@
         <v>135</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8625,14 +8626,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8654,16 +8655,16 @@
         <v>191</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8688,13 +8689,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -8712,7 +8713,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8730,27 +8731,27 @@
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8776,16 +8777,16 @@
         <v>83</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N58" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O58" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -8834,7 +8835,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8855,10 +8856,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:20:35+00:00</t>
+    <t>2023-03-09T14:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:36:45+00:00</t>
+    <t>2023-03-13T06:32:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
+++ b/branches/master/StructureDefinition-covid19-recovered-or-symptoms-resolved.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T06:32:29+00:00</t>
+    <t>2023-04-04T11:04:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
